--- a/storage/public/excel/BieuMauHP.xlsx
+++ b/storage/public/excel/BieuMauHP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27723"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\quanlylichtrinh.vn\storage\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\web\quanlylichtrinh.vn\storage\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F52DE9-4390-400C-A30D-0258D4E57FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7179E690-67BE-41A8-AF9C-1E899272D74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="4305" windowWidth="26280" windowHeight="16575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mon ly thuyet" sheetId="1" r:id="rId1"/>
@@ -861,159 +861,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,6 +880,159 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1391,70 +1391,70 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:R26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W15" activeCellId="1" sqref="J34:K34 W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="53" t="s">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="24" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="58"/>
+    </row>
+    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="E4" s="8"/>
@@ -1464,129 +1464,129 @@
       <c r="I4" s="8"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="46"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:18" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="66" t="s">
+      <c r="K7" s="46"/>
+    </row>
+    <row r="8" spans="1:18" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="31" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-    </row>
-    <row r="9" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+    </row>
+    <row r="9" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:18" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:18" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="43" t="s">
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="37" t="s">
+      <c r="I10" s="76"/>
+      <c r="J10" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-    </row>
-    <row r="11" spans="1:18" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+    </row>
+    <row r="11" spans="1:18" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="16" t="s">
         <v>11</v>
       </c>
@@ -1596,385 +1596,385 @@
       <c r="G11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="35" t="s">
+      <c r="I11" s="50"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-    </row>
-    <row r="12" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+    </row>
+    <row r="12" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-    </row>
-    <row r="13" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+    </row>
+    <row r="13" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="33" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-    </row>
-    <row r="14" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+    </row>
+    <row r="14" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-    </row>
-    <row r="15" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-    </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+    </row>
+    <row r="16" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-    </row>
-    <row r="17" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+    </row>
+    <row r="17" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-    </row>
-    <row r="18" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+    </row>
+    <row r="18" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-    </row>
-    <row r="19" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+    </row>
+    <row r="19" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-    </row>
-    <row r="20" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+    </row>
+    <row r="20" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-    </row>
-    <row r="21" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+    </row>
+    <row r="21" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-    </row>
-    <row r="22" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+    </row>
+    <row r="22" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-    </row>
-    <row r="23" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+    </row>
+    <row r="23" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-    </row>
-    <row r="24" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+    </row>
+    <row r="24" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-    </row>
-    <row r="25" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+    </row>
+    <row r="25" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-    </row>
-    <row r="26" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+    </row>
+    <row r="26" spans="1:18" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-    </row>
-    <row r="27" spans="1:18" s="9" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+    </row>
+    <row r="27" spans="1:18" s="9" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1986,7 +1986,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:18" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>16</v>
       </c>
@@ -2003,86 +2003,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="J29" s="32" t="s">
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="J29" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="32"/>
-    </row>
-    <row r="30" spans="1:18" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="45"/>
+    </row>
+    <row r="30" spans="1:18" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:18" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:18" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="32"/>
-    </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="45"/>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C1:I3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="J1:K3"/>
     <mergeCell ref="J5:K5"/>
@@ -2099,6 +2073,32 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C1:I3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
